--- a/public/ejemplo.xlsx
+++ b/public/ejemplo.xlsx
@@ -29,9 +29,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>Coreo</t>
-  </si>
-  <si>
     <t>Nombre</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>PEV55@ejemplo.com</t>
+  </si>
+  <si>
+    <t>Correo</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -420,92 +420,92 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
